--- a/sequences/localizer_conditions_02.xlsx
+++ b/sequences/localizer_conditions_02.xlsx
@@ -509,30 +509,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>chair\chair_29.jpg</t>
+          <t>jacket\jacket_18.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -556,30 +556,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>house\house_06.jpg</t>
+          <t>hammer\hammer_16.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -603,30 +603,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>flower\flower_19.jpg</t>
+          <t>bicycle\bicycle_16.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -650,30 +650,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>flower\flower_15.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>hammer</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>hammer\hammer_24.jpg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ball</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -705,51 +705,43 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>dog\dog_01.jpg</t>
+          <t>ball\ball_05.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -760,30 +752,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>hand\hand_12.jpg</t>
+          <t>hammer\hammer_24.jpg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -793,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -807,30 +799,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>house\house_07.jpg</t>
+          <t>jacket\jacket_07.jpg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -840,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -854,43 +846,51 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>bread\bread_13.jpg</t>
+          <t>dog\dog_16.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -901,30 +901,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>jacket\jacket_39.jpg</t>
+          <t>hand\hand_24.jpg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -948,30 +948,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>bread\bread_02.jpg</t>
+          <t>dog\dog_20.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.01</v>
+        <v>0.87</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1003,43 +1003,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>house\house_17.jpg</t>
+          <t>house\house_36.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1050,30 +1042,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>jacket\jacket_19.jpg</t>
+          <t>chair\chair_11.jpg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1083,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.11</v>
+        <v>0.87</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1097,30 +1089,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>bread\bread_03.jpg</t>
+          <t>hand\hand_21.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1130,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1144,30 +1136,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>dog\dog_03.jpg</t>
+          <t>bread\bread_33.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1177,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1191,30 +1183,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>house\house_01.jpg</t>
+          <t>ball\ball_15.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1224,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1238,30 +1230,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>jacket\jacket_27.jpg</t>
+          <t>flower\flower_11.jpg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1271,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1285,30 +1277,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_21.jpg</t>
+          <t>house\house_22.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1318,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1332,30 +1324,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ball\ball_13.jpg</t>
+          <t>chair\chair_37.jpg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1365,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1379,30 +1371,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>chair\chair_13.jpg</t>
+          <t>bread\bread_36.jpg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1412,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.16</v>
+        <v>0.78</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1426,30 +1418,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>hammer\hammer_17.jpg</t>
+          <t>bicycle\bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1459,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1473,30 +1465,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>bread\bread_06.jpg</t>
+          <t>flower\flower_38.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1506,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1528,7 +1520,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ball\ball_28.jpg</t>
+          <t>ball\ball_36.jpg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1553,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1567,30 +1559,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>flower\flower_24.jpg</t>
+          <t>hand\hand_36.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1600,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1614,30 +1606,30 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_33.jpg</t>
+          <t>dog\dog_39.jpg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1647,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1661,30 +1653,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>dog\dog_13.jpg</t>
+          <t>jacket\jacket_19.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1694,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.07</v>
+        <v>0.9</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1708,30 +1700,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>jacket\jacket_17.jpg</t>
+          <t>chair\chair_03.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1741,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1755,51 +1747,43 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ball\ball_04.jpg</t>
+          <t>bread\bread_21.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>1.08</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1810,30 +1794,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>flower\flower_13.jpg</t>
+          <t>ball\ball_30.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1857,30 +1841,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_22.jpg</t>
+          <t>hammer\hammer_02.jpg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1890,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1904,30 +1888,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>chair\chair_11.jpg</t>
+          <t>bicycle\bicycle_07.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1937,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -1951,30 +1935,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>jacket\jacket_28.jpg</t>
+          <t>flower\flower_35.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1984,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.16</v>
+        <v>0.83</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -1998,30 +1982,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>bread\bread_17.jpg</t>
+          <t>jacket\jacket_04.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2031,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2045,30 +2029,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>hand\hand_30.jpg</t>
+          <t>hammer\hammer_22.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2078,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2100,7 +2084,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>chair\chair_21.jpg</t>
+          <t>chair\chair_24.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2125,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2139,43 +2123,51 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_15.jpg</t>
+          <t>bread\bread_31.jpg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+        <v>1.09</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2186,30 +2178,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>hammer\hammer_18.jpg</t>
+          <t>bicycle\bicycle_22.jpg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2233,30 +2225,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_12.jpg</t>
+          <t>dog\dog_23.jpg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2266,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2280,43 +2272,51 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ball\ball_03.jpg</t>
+          <t>house\house_31.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+        <v>1.01</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2327,30 +2327,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>chair\chair_15.jpg</t>
+          <t>hand\hand_13.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.22</v>
+        <v>0.87</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2374,30 +2374,30 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>flower\flower_06.jpg</t>
+          <t>house\house_40.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2421,30 +2421,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>hammer\hammer_25.jpg</t>
+          <t>dog\dog_10.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1.18</v>
+        <v>0.86</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2468,51 +2468,43 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>house\house_29.jpg</t>
+          <t>jacket\jacket_22.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>1.05</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2523,30 +2515,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>dog\dog_27.jpg</t>
+          <t>hammer\hammer_14.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2556,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2570,43 +2562,51 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>hand\hand_25.jpg</t>
+          <t>bicycle\bicycle_36.jpg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+        <v>0.89</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2617,30 +2617,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>dog\dog_18.jpg</t>
+          <t>flower\flower_02.jpg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -2664,30 +2664,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>hand\hand_29.jpg</t>
+          <t>ball\ball_18.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -2711,30 +2711,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>hammer\hammer_36.jpg</t>
+          <t>hand\hand_40.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -2758,30 +2758,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>hand\hand_03.jpg</t>
+          <t>bread\bread_19.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1.19</v>
+        <v>0.82</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2805,30 +2805,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ball\ball_14.jpg</t>
+          <t>house\house_17.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1.22</v>
+        <v>0.82</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -2852,30 +2852,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>flower\flower_17.jpg</t>
+          <t>chair\chair_26.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1.21</v>
+        <v>0.77</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -2899,30 +2899,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>jacket\jacket_25.jpg</t>
+          <t>bread\bread_26.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1.24</v>
+        <v>0.96</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>house\house_27.jpg</t>
+          <t>ball\ball_07.jpg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1.24</v>
+        <v>0.97</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -2993,30 +2993,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>dog\dog_06.jpg</t>
+          <t>hand\hand_12.jpg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3040,30 +3040,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ball\ball_26.jpg</t>
+          <t>dog\dog_03.jpg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3087,51 +3087,43 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_28.jpg</t>
+          <t>jacket\jacket_09.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3150,7 +3142,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>hammer\hammer_39.jpg</t>
+          <t>hammer\hammer_04.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3175,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3189,30 +3181,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>flower\flower_25.jpg</t>
+          <t>bicycle\bicycle_24.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3222,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3236,30 +3228,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>dog\dog_12.jpg</t>
+          <t>flower\flower_07.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3269,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3283,30 +3275,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>flower\flower_01.jpg</t>
+          <t>house\house_24.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3316,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3338,22 +3330,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>chair\chair_27.jpg</t>
+          <t>chair\chair_20.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3363,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3385,30 +3377,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>jacket\jacket_05.jpg</t>
+          <t>bicycle\bicycle_23.jpg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3432,30 +3424,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>bread\bread_05.jpg</t>
+          <t>flower\flower_22.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -3465,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -3487,35 +3479,43 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ball\ball_08.jpg</t>
+          <t>ball\ball_39.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3526,30 +3526,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_11.jpg</t>
+          <t>hammer\hammer_23.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>hand\hand_01.jpg</t>
+          <t>bicycle\bicycle_03.jpg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3620,30 +3620,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>house\house_25.jpg</t>
+          <t>flower\flower_26.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3667,30 +3667,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>jacket\jacket_09.jpg</t>
+          <t>ball\ball_34.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1.17</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -3714,30 +3714,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ball\ball_27.jpg</t>
+          <t>jacket\jacket_03.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -3761,30 +3761,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>flower\flower_09.jpg</t>
+          <t>hammer\hammer_08.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -3808,43 +3808,51 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>house\house_03.jpg</t>
+          <t>hand\hand_32.jpg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+        <v>0.99</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3863,43 +3871,35 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>bread\bread_29.jpg</t>
+          <t>bread\bread_10.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>1.14</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3910,30 +3910,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>hand\hand_18.jpg</t>
+          <t>house\house_01.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -3957,30 +3957,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_23.jpg</t>
+          <t>chair\chair_17.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4004,30 +4004,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ball\ball_29.jpg</t>
+          <t>hand\hand_33.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4051,30 +4051,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>jacket\jacket_07.jpg</t>
+          <t>dog\dog_28.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4098,30 +4098,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>bread\bread_30.jpg</t>
+          <t>house\house_06.jpg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4145,30 +4145,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>hammer\hammer_16.jpg</t>
+          <t>chair\chair_18.jpg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.98</v>
+        <v>1.1</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -4200,43 +4200,35 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>bread\bread_10.jpg</t>
+          <t>bread\bread_22.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>1.13</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4247,30 +4239,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ball\ball_10.jpg</t>
+          <t>jacket\jacket_39.jpg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4280,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -4294,30 +4286,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>hand\hand_20.jpg</t>
+          <t>dog\dog_29.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4327,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4341,43 +4333,51 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_14.jpg</t>
+          <t>house\house_30.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+        <v>1.11</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4388,30 +4388,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>flower\flower_22.jpg</t>
+          <t>dog\dog_26.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -4435,30 +4435,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>hammer\hammer_26.jpg</t>
+          <t>house\house_07.jpg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.78</v>
+        <v>1.12</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -4482,30 +4482,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>bread\bread_07.jpg</t>
+          <t>chair\chair_08.jpg</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>jacket\jacket_10.jpg</t>
+          <t>bread\bread_03.jpg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -4576,30 +4576,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>hammer\hammer_06.jpg</t>
+          <t>ball\ball_04.jpg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -4623,43 +4623,51 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>chair\chair_26.jpg</t>
+          <t>hammer\hammer_20.jpg</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+        <v>0.85</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4670,30 +4678,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>house\house_12.jpg</t>
+          <t>chair\chair_09.jpg</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -4703,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -4717,30 +4725,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>hand\hand_07.jpg</t>
+          <t>bread\bread_25.jpg</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -4750,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -4764,30 +4772,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>flower\flower_26.jpg</t>
+          <t>bicycle\bicycle_32.jpg</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -4797,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1.2</v>
+        <v>0.86</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -4811,30 +4819,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>chair\chair_17.jpg</t>
+          <t>ball\ball_29.jpg</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -4844,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -4858,30 +4866,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>hammer\hammer_21.jpg</t>
+          <t>flower\flower_40.jpg</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -4891,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -4905,30 +4913,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>house\house_14.jpg</t>
+          <t>jacket\jacket_30.jpg</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -4938,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -4952,30 +4960,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>dog\dog_20.jpg</t>
+          <t>hammer\hammer_12.jpg</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -4985,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -5007,7 +5015,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_09.jpg</t>
+          <t>bicycle\bicycle_34.jpg</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5032,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.85</v>
+        <v>1.14</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -5046,30 +5054,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>hand\hand_15.jpg</t>
+          <t>flower\flower_13.jpg</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -5079,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
@@ -5093,30 +5101,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>chair\chair_04.jpg</t>
+          <t>hand\hand_39.jpg</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -5126,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -5148,7 +5156,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>dog\dog_04.jpg</t>
+          <t>dog\dog_22.jpg</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5173,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -5187,15 +5195,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>chair\chair_07.jpg</t>
+          <t>hand\hand_01.jpg</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5217,21 +5225,13 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>1.05</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5242,30 +5242,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>dog\dog_24.jpg</t>
+          <t>jacket\jacket_28.jpg</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -5289,51 +5289,43 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>hand\hand_36.jpg</t>
+          <t>dog\dog_12.jpg</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>1.07</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5344,30 +5336,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>bread\bread_19.jpg</t>
+          <t>jacket\jacket_32.jpg</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -5377,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -5391,30 +5383,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_01.jpg</t>
+          <t>hammer\hammer_21.jpg</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -5424,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5438,30 +5430,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ball\ball_30.jpg</t>
+          <t>chair\chair_35.jpg</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -5471,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -5485,51 +5477,43 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>dog\dog_07.jpg</t>
+          <t>hand\hand_22.jpg</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5540,30 +5524,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>hammer\hammer_11.jpg</t>
+          <t>dog\dog_11.jpg</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -5573,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.77</v>
+        <v>1.16</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -5587,30 +5571,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>dog\dog_19.jpg</t>
+          <t>house\house_04.jpg</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -5620,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -5634,43 +5618,51 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>house\house_13.jpg</t>
+          <t>ball\ball_01.jpg</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+        <v>1.22</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5681,30 +5673,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>hand\hand_14.jpg</t>
+          <t>jacket\jacket_31.jpg</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -5714,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -5728,30 +5720,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>flower\flower_08.jpg</t>
+          <t>chair\chair_14.jpg</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -5761,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -5775,30 +5767,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>jacket\jacket_18.jpg</t>
+          <t>bread\bread_14.jpg</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -5808,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -5830,7 +5822,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_18.jpg</t>
+          <t>bicycle\bicycle_05.jpg</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5855,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -5869,30 +5861,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ball\ball_20.jpg</t>
+          <t>flower\flower_33.jpg</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -5902,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -5916,30 +5908,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>hand\hand_16.jpg</t>
+          <t>ball\ball_10.jpg</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -5949,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -5963,30 +5955,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>house\house_10.jpg</t>
+          <t>hammer\hammer_06.jpg</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -5996,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -6010,30 +6002,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>chair\chair_01.jpg</t>
+          <t>hand\hand_15.jpg</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -6043,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -6057,30 +6049,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>jacket\jacket_16.jpg</t>
+          <t>bread\bread_24.jpg</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -6090,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>1.14</v>
+        <v>0.78</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
@@ -6104,30 +6096,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>dog\dog_05.jpg</t>
+          <t>bicycle\bicycle_31.jpg</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6137,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
@@ -6151,30 +6143,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_25.jpg</t>
+          <t>flower\flower_04.jpg</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -6184,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -6206,30 +6198,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ball\ball_16.jpg</t>
+          <t>house\house_38.jpg</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -6239,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
@@ -6253,51 +6245,43 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>hammer\hammer_09.jpg</t>
+          <t>ball\ball_13.jpg</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>1.21</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6308,30 +6292,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_06.jpg</t>
+          <t>jacket\jacket_01.jpg</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -6341,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -6355,30 +6339,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>house\house_19.jpg</t>
+          <t>hammer\hammer_31.jpg</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -6388,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -6402,30 +6386,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>chair\chair_24.jpg</t>
+          <t>bicycle\bicycle_27.jpg</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -6435,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
@@ -6449,30 +6433,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>jacket\jacket_04.jpg</t>
+          <t>flower\flower_36.jpg</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -6482,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
@@ -6496,15 +6480,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>flower\flower_12.jpg</t>
+          <t>ball\ball_25.jpg</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6526,21 +6510,13 @@
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>1.12</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6551,30 +6527,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>jacket\jacket_03.jpg</t>
+          <t>hammer\hammer_27.jpg</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -6584,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -6598,43 +6574,51 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>flower\flower_15.jpg</t>
+          <t>jacket\jacket_08.jpg</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+        <v>0.83</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6645,30 +6629,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>jacket\jacket_13.jpg</t>
+          <t>chair\chair_32.jpg</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -6678,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -6692,30 +6676,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>house\house_24.jpg</t>
+          <t>bread\bread_32.jpg</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -6725,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
@@ -6739,43 +6723,51 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>hand\hand_11.jpg</t>
+          <t>bicycle\bicycle_08.jpg</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+        <v>1.02</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6794,7 +6786,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>bread\bread_11.jpg</t>
+          <t>bread\bread_02.jpg</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6819,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -6833,30 +6825,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_05.jpg</t>
+          <t>house\house_18.jpg</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -6866,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>1.2</v>
+        <v>0.79</v>
       </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -6880,30 +6872,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>hammer\hammer_03.jpg</t>
+          <t>dog\dog_01.jpg</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -6913,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -6927,30 +6919,30 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>hand\hand_22.jpg</t>
+          <t>house\house_29.jpg</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -6960,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -6982,7 +6974,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>dog\dog_11.jpg</t>
+          <t>dog\dog_09.jpg</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7007,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
@@ -7021,30 +7013,30 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>flower\flower_02.jpg</t>
+          <t>hand\hand_28.jpg</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -7054,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
@@ -7068,30 +7060,30 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>house\house_26.jpg</t>
+          <t>chair\chair_02.jpg</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -7101,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>1.14</v>
+        <v>0.97</v>
       </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -7115,30 +7107,30 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>dog\dog_10.jpg</t>
+          <t>hand\hand_27.jpg</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -7148,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
@@ -7162,30 +7154,30 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>chair\chair_03.jpg</t>
+          <t>flower\flower_31.jpg</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -7195,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -7209,30 +7201,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>bread\bread_14.jpg</t>
+          <t>house\house_32.jpg</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -7242,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>1.11</v>
+        <v>0.82</v>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -7256,30 +7248,30 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ball\ball_07.jpg</t>
+          <t>chair\chair_40.jpg</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -7289,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -7303,30 +7295,30 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>flower\flower_03.jpg</t>
+          <t>bread\bread_05.jpg</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -7336,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
@@ -7350,30 +7342,30 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>hammer\hammer_29.jpg</t>
+          <t>bicycle\bicycle_19.jpg</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -7383,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -7397,30 +7389,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>chair\chair_23.jpg</t>
+          <t>jacket\jacket_16.jpg</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -7430,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -7444,30 +7436,30 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>bread\bread_23.jpg</t>
+          <t>hammer\hammer_33.jpg</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -7477,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
@@ -7491,43 +7483,51 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ball\ball_23.jpg</t>
+          <t>hand\hand_37.jpg</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+        <v>0.88</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>chair\chair_14.jpg</t>
+          <t>dog\dog_15.jpg</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -7585,30 +7585,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>hammer\hammer_14.jpg</t>
+          <t>ball\ball_28.jpg</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -7632,30 +7632,30 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>bread\bread_12.jpg</t>
+          <t>flower\flower_21.jpg</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>1.03</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ball\ball_21.jpg</t>
+          <t>ball\ball_22.jpg</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1.01</v>
+        <v>0.8</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
@@ -7726,30 +7726,30 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>flower\flower_05.jpg</t>
+          <t>hammer\hammer_09.jpg</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -7773,30 +7773,30 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>chair\chair_12.jpg</t>
+          <t>jacket\jacket_11.jpg</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -7820,43 +7820,51 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_27.jpg</t>
+          <t>dog\dog_17.jpg</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+        <v>0.96</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7867,51 +7875,43 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ball\ball_15.jpg</t>
+          <t>house\house_26.jpg</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>1.09</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7922,30 +7922,30 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>bread\bread_16.jpg</t>
+          <t>chair\chair_16.jpg</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -7969,30 +7969,30 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>jacket\jacket_37.jpg</t>
+          <t>bread\bread_08.jpg</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>1.22</v>
+        <v>0.92</v>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
@@ -8016,30 +8016,30 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>chair\chair_09.jpg</t>
+          <t>bicycle\bicycle_01.jpg</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
@@ -8063,30 +8063,30 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>dog\dog_28.jpg</t>
+          <t>flower\flower_06.jpg</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
@@ -8110,30 +8110,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>hammer\hammer_04.jpg</t>
+          <t>hand\hand_03.jpg</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
@@ -8157,43 +8157,51 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>house\house_16.jpg</t>
+          <t>bread\bread_17.jpg</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+        <v>0.96</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -8204,30 +8212,30 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>chair\chair_16.jpg</t>
+          <t>ball\ball_26.jpg</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -8237,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
@@ -8251,30 +8259,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>hand\hand_08.jpg</t>
+          <t>jacket\jacket_10.jpg</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -8284,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
@@ -8298,30 +8306,30 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>flower\flower_29.jpg</t>
+          <t>dog\dog_27.jpg</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -8331,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
@@ -8345,30 +8353,30 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>house\house_15.jpg</t>
+          <t>hand\hand_38.jpg</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -8378,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>0.87</v>
+        <v>1.18</v>
       </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
@@ -8392,51 +8400,43 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>flower\flower_11.jpg</t>
+          <t>dog\dog_37.jpg</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -8447,30 +8447,30 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>hammer\hammer_23.jpg</t>
+          <t>house\house_03.jpg</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0.87</v>
+        <v>1.13</v>
       </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -8494,30 +8494,30 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>jacket\jacket_11.jpg</t>
+          <t>ball\ball_23.jpg</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -8541,30 +8541,30 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>house\house_08.jpg</t>
+          <t>jacket\jacket_26.jpg</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
@@ -8588,43 +8588,51 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_30.jpg</t>
+          <t>chair\chair_12.jpg</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
+        <v>0.95</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -8635,30 +8643,30 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>chair\chair_18.jpg</t>
+          <t>bread\bread_09.jpg</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -8668,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -8682,30 +8690,30 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>hand\hand_05.jpg</t>
+          <t>bicycle\bicycle_40.jpg</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -8715,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
@@ -8729,30 +8737,30 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ball\ball_18.jpg</t>
+          <t>flower\flower_16.jpg</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -8762,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
@@ -8776,30 +8784,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>hammer\hammer_08.jpg</t>
+          <t>hand\hand_25.jpg</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -8809,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
@@ -8823,30 +8831,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>hand\hand_19.jpg</t>
+          <t>chair\chair_06.jpg</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -8856,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -8870,30 +8878,30 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>dog\dog_09.jpg</t>
+          <t>bicycle\bicycle_21.jpg</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -8903,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
@@ -8917,30 +8925,30 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>hand\hand_09.jpg</t>
+          <t>hammer\hammer_10.jpg</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -8950,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
@@ -8964,30 +8972,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>hammer\hammer_22.jpg</t>
+          <t>house\house_25.jpg</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -8997,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
@@ -9011,30 +9019,30 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_16.jpg</t>
+          <t>hammer\hammer_01.jpg</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -9044,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
@@ -9058,51 +9066,43 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>jacket\jacket_14.jpg</t>
+          <t>flower\flower_28.jpg</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I181" t="n">
         <v>1</v>
       </c>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+        <v>1.19</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -9113,30 +9113,30 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>bread\bread_18.jpg</t>
+          <t>house\house_08.jpg</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
@@ -9160,30 +9160,30 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>house\house_09.jpg</t>
+          <t>chair\chair_27.jpg</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -9207,30 +9207,30 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ball\ball_02.jpg</t>
+          <t>bread\bread_20.jpg</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I184" t="n">
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
@@ -9254,30 +9254,30 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>dog\dog_23.jpg</t>
+          <t>ball\ball_17.jpg</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I185" t="n">
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
@@ -9301,22 +9301,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>jacket</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>jacket\jacket_25.jpg</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="D186" t="n">
-        <v>2</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>bicycle\bicycle_02.jpg</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>bicycle</t>
-        </is>
-      </c>
       <c r="G186" t="inlineStr">
         <is>
           <t>Fahrrad</t>
@@ -9331,13 +9331,21 @@
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+        <v>1.11</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -9348,30 +9356,30 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ball\ball_25.jpg</t>
+          <t>flower\flower_19.jpg</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Ballon</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -9381,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
@@ -9395,30 +9403,30 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>flower\flower_23.jpg</t>
+          <t>ball\ball_32.jpg</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Ballon</t>
         </is>
       </c>
       <c r="I188" t="n">
@@ -9428,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>1.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
@@ -9442,30 +9450,30 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>hammer\hammer_19.jpg</t>
+          <t>jacket\jacket_06.jpg</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Hammer</t>
+          <t>Jacke</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Marteau</t>
+          <t>Veste</t>
         </is>
       </c>
       <c r="I189" t="n">
@@ -9475,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
@@ -9489,51 +9497,43 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>jacket\jacket_06.jpg</t>
+          <t>chair\chair_15.jpg</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Stuhl</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="I190" t="n">
         <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+        <v>0.96</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -9544,30 +9544,30 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>bread\bread_28.jpg</t>
+          <t>bicycle\bicycle_20.jpg</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -9591,30 +9591,30 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>jacket\jacket_30.jpg</t>
+          <t>flower\flower_32.jpg</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Jacke</t>
+          <t>Blume</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Veste</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
@@ -9638,30 +9638,30 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>bicycle\bicycle_20.jpg</t>
+          <t>house\house_15.jpg</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Vélo</t>
+          <t>Maison</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>dog\dog_22.jpg</t>
+          <t>dog\dog_31.jpg</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
@@ -9732,51 +9732,43 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>hand\hand_06.jpg</t>
+          <t>bicycle\bicycle_15.jpg</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Vélo</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195" t="n">
         <v>1.15</v>
       </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9787,30 +9779,30 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>house\house_05.jpg</t>
+          <t>bread\bread_37.jpg</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Haus</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Maison</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I196" t="n">
@@ -9820,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
@@ -9834,30 +9826,30 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>bread\bread_22.jpg</t>
+          <t>hammer\hammer_30.jpg</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Marteau</t>
         </is>
       </c>
       <c r="I197" t="n">
@@ -9867,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
@@ -9881,30 +9873,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>dog\dog_16.jpg</t>
+          <t>hand\hand_30.jpg</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Hund</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Chien</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I198" t="n">
@@ -9914,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>1.12</v>
+        <v>0.78</v>
       </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
@@ -9928,30 +9920,30 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>bread\bread_24.jpg</t>
+          <t>dog\dog_35.jpg</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Brot</t>
+          <t>Hund</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Chien</t>
         </is>
       </c>
       <c r="I199" t="n">
@@ -9961,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
@@ -9975,30 +9967,30 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>flower\flower_07.jpg</t>
+          <t>hand\hand_16.jpg</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Blume</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Main</t>
         </is>
       </c>
       <c r="I200" t="n">
@@ -10008,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
@@ -10022,43 +10014,51 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>chair\chair_08.jpg</t>
+          <t>hammer\hammer_15.jpg</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Stuhl</t>
+          <t>Brot</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Chaise</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I201" t="n">
         <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
+        <v>0.92</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
